--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -55,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -66,6 +70,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +469,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>branch name</t>
+          <t>Yunusobod</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -474,12 +479,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>13.03.2004</t>
+          <t>14.03.2004</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>jd dh</t>
+          <t>Abdurakhimov Ravshanjon</t>
         </is>
       </c>
     </row>
@@ -494,8 +499,10 @@
           <t>вес</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>100</v>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>процент</t>
+        </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -513,7 +520,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +533,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +546,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +559,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -565,7 +572,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +585,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +598,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -604,7 +611,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -617,7 +624,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -630,7 +637,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -669,7 +676,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -682,12 +689,12 @@
         <v>100</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="2" t="n">
-        <v>12.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="20">
@@ -722,7 +729,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -735,7 +742,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -748,7 +755,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -761,7 +768,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -774,7 +781,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -787,7 +794,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -800,7 +807,7 @@
         <v>100</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -813,7 +820,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -826,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -839,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +859,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -878,12 +885,12 @@
         <v>100</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="n">
-        <v>11.6</v>
+      <c r="C34" s="2" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="35">
@@ -918,7 +925,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -931,7 +938,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +951,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -970,7 +977,7 @@
         <v>100</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -983,7 +990,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +1003,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1009,7 +1016,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -1022,7 +1029,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -1035,7 +1042,7 @@
         <v>100</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -1048,7 +1055,7 @@
         <v>100</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1068,7 @@
         <v>100</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
@@ -1074,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -1100,7 +1107,7 @@
         <v>100</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1120,7 @@
         <v>100</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1126,7 +1133,7 @@
         <v>100</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
@@ -1139,7 +1146,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1152,7 +1159,7 @@
         <v>100</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -1165,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -1178,12 +1185,12 @@
         <v>100</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" s="2" t="n">
-        <v>11</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="58">
@@ -1218,7 +1225,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
@@ -1231,7 +1238,7 @@
         <v>100</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -1257,7 +1264,7 @@
         <v>100</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
@@ -1270,7 +1277,7 @@
         <v>100</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
@@ -1283,7 +1290,7 @@
         <v>100</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -1296,7 +1303,7 @@
         <v>100</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -1309,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
@@ -1322,7 +1329,7 @@
         <v>100</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -1335,7 +1342,7 @@
         <v>100</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -1348,7 +1355,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
@@ -1361,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -1374,7 +1381,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -1386,11 +1393,13 @@
       <c r="B72" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>7.300000000000001</v>
-      </c>
       <c r="D72" s="2" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" s="2" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="74">
@@ -1451,7 +1460,7 @@
         <v>100</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
@@ -1464,7 +1473,7 @@
         <v>100</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
@@ -1477,7 +1486,7 @@
         <v>100</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
@@ -1490,7 +1499,7 @@
         <v>100</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
@@ -1503,7 +1512,7 @@
         <v>100</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
@@ -1516,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -1529,7 +1538,7 @@
         <v>100</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -1542,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
@@ -1555,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -1568,7 +1577,7 @@
         <v>100</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
@@ -1581,7 +1590,7 @@
         <v>100</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88">
@@ -1594,7 +1603,7 @@
         <v>100</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89">
@@ -1633,7 +1642,7 @@
         <v>100</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
@@ -1646,7 +1655,7 @@
         <v>100</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93">
@@ -1659,7 +1668,7 @@
         <v>100</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
@@ -1672,12 +1681,12 @@
         <v>100</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="C95" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="96">
@@ -1712,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -1725,7 +1734,7 @@
         <v>100</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99">
@@ -1738,7 +1747,7 @@
         <v>100</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
@@ -1764,7 +1773,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
@@ -1777,7 +1786,7 @@
         <v>100</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
@@ -1790,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -1803,7 +1812,7 @@
         <v>100</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
@@ -1821,7 +1830,7 @@
     </row>
     <row r="106">
       <c r="C106" s="2" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="107">
@@ -1839,7 +1848,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
@@ -1852,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
@@ -1878,7 +1887,7 @@
         <v>100</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111">
@@ -1891,7 +1900,7 @@
         <v>100</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112">
@@ -1904,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113">
@@ -1917,7 +1926,7 @@
         <v>100</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
@@ -1930,7 +1939,7 @@
         <v>100</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
@@ -1943,7 +1952,7 @@
         <v>100</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">
@@ -1956,7 +1965,7 @@
         <v>100</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117">
@@ -1969,54 +1978,41 @@
         <v>100</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="C118" s="2" t="n">
-        <v>9</v>
+        <v>7.300000000000001</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>МАРКИРОВКА ТОВАРА</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>коментарий</t>
-        </is>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Результат</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>1.261081283555999</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>Кол-во проверенных ценников(разные категории, не менее 50 ед)</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>sjsjsj</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Кол-во ветхих, не актуальных, не соответствующих требованиям ценников</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>idirifk</t>
-        </is>
+      <c r="A120" s="3" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>ВЫСТАВЛЕННОСТЬ ТОВАРА В ТЗ</t>
+          <t>МАРКИРОВКА ТОВАРА</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -2028,24 +2024,60 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>Кол-во проверенных артикулов(разные категории, не менее 50 арт)</t>
+          <t>Кол-во проверенных ценников(разные категории, не менее 50 ед)</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>bfndn</t>
+          <t>ОЧЕНЬ ХОРОШО</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
+          <t>Кол-во ветхих, не актуальных, не соответствующих требованиям ценников</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Очень плохо</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>ВЫСТАВЛЕННОСТЬ ТОВАРА В ТЗ</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>коментарий</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Кол-во проверенных артикулов(разные категории, не менее 50 арт)</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Очень удовлетворительно</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
           <t>Кол-во не выставленных артикулов</t>
         </is>
       </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>jejehe</t>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Хараша</t>
         </is>
       </c>
     </row>
